--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_first20_adj.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_first20_adj.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\Article_SoftRobotIntervention\Analyses\main study - LLM\create tables, graphics G3\outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\Article_SoftRobotIntervention_2\Analyses\main study - LLM\create tables, graphics G3\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D883D409-AD99-4FD3-98DD-8D09C0626DF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642AAAF5-D7A5-4245-9556-C9B8677E926B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -216,17 +216,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -239,27 +234,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -587,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="A1:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,426 +586,426 @@
     <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="44.28515625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="5" max="6" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="8">
         <v>67</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>34</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="8">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="8">
         <v>31</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <v>23</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="8">
         <v>19</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="8">
         <v>18</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="8">
         <v>17</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="8">
         <v>17</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="8">
         <v>17</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="8">
         <v>17</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="8">
         <v>16</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="8">
         <v>15</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="8">
         <v>13</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="8">
         <v>13</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="8">
         <v>13</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="8">
         <v>13</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="8">
         <v>13</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="8">
         <v>13</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="8">
         <v>12</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <v>0</v>
       </c>
     </row>
